--- a/Boletín 1/Data/WID_ingreso_ALC_tableau.xlsx
+++ b/Boletín 1/Data/WID_ingreso_ALC_tableau.xlsx
@@ -1,43 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +60,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -211,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -414,298 +351,731 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ALC</t>
-        </is>
+      <c r="A1" t="str">
+        <v>Año</v>
+      </c>
+      <c r="B1" t="str">
+        <v>pais</v>
+      </c>
+      <c r="C1" t="str">
+        <v>valor</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B2" t="str">
+        <v>ALC</v>
+      </c>
+      <c r="C2" t="str">
+        <v>0.1911</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C3" t="str">
+        <v>0.1444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Bolivia</v>
+      </c>
+      <c r="C4" t="str">
         <v>0.1984</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1444</v>
-      </c>
-      <c r="D2" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Brasil</v>
+      </c>
+      <c r="C5" t="str">
         <v>0.2215</v>
       </c>
-      <c r="E2" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="C6" t="str">
         <v>0.2532</v>
       </c>
-      <c r="F2" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="C7" t="str">
         <v>0.246</v>
       </c>
-      <c r="G2" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Costa Rica</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0.2026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Ecuador</v>
+      </c>
+      <c r="C9" t="str">
         <v>0.195</v>
       </c>
-      <c r="H2" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0.1169</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Paraguay</v>
+      </c>
+      <c r="C11" t="str">
         <v>0.1984</v>
       </c>
-      <c r="I2" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Perú</v>
+      </c>
+      <c r="C12" t="str">
         <v>0.2816</v>
       </c>
-      <c r="J2" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Uruguay</v>
+      </c>
+      <c r="C13" t="str">
         <v>0.173</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.1169</v>
-      </c>
-      <c r="L2" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B14" t="str">
+        <v>ALC</v>
+      </c>
+      <c r="C14" t="str">
+        <v>0.2033</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0.1177</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Bolivia</v>
+      </c>
+      <c r="C16" t="str">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Brasil</v>
+      </c>
+      <c r="C17" t="str">
+        <v>0.2294</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="C18" t="str">
+        <v>0.2662</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="C19" t="str">
+        <v>0.2247</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Costa Rica</v>
+      </c>
+      <c r="C20" t="str">
         <v>0.2026</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.1911</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B3" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Ecuador</v>
+      </c>
+      <c r="C21" t="str">
+        <v>0.1834</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0.1609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Paraguay</v>
+      </c>
+      <c r="C23" t="str">
         <v>0.193</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.1177</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2294</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2662</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2247</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1834</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="I3" t="n">
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Perú</v>
+      </c>
+      <c r="C24" t="str">
         <v>0.2157</v>
       </c>
-      <c r="J3" t="n">
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Uruguay</v>
+      </c>
+      <c r="C25" t="str">
         <v>0.1449</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.1609</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2026</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.2033</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B4" t="n">
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B26" t="str">
+        <v>ALC</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0.2282</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C27" t="str">
+        <v>0.1164</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Bolivia</v>
+      </c>
+      <c r="C28" t="str">
         <v>0.1982</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.1164</v>
-      </c>
-      <c r="D4" t="n">
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Brasil</v>
+      </c>
+      <c r="C29" t="str">
         <v>0.2469</v>
       </c>
-      <c r="E4" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="C30" t="str">
         <v>0.2673</v>
       </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="C31" t="str">
         <v>0.2413</v>
       </c>
-      <c r="G4" t="n">
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Costa Rica</v>
+      </c>
+      <c r="C32" t="str">
+        <v>0.1838</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Ecuador</v>
+      </c>
+      <c r="C33" t="str">
         <v>0.1313</v>
       </c>
-      <c r="H4" t="n">
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="C34" t="str">
+        <v>0.2634</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Paraguay</v>
+      </c>
+      <c r="C35" t="str">
         <v>0.1982</v>
       </c>
-      <c r="I4" t="n">
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Perú</v>
+      </c>
+      <c r="C36" t="str">
         <v>0.2329</v>
       </c>
-      <c r="J4" t="n">
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Uruguay</v>
+      </c>
+      <c r="C37" t="str">
         <v>0.1531</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.2634</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1838</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.2282</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B5" t="n">
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B38" t="str">
+        <v>ALC</v>
+      </c>
+      <c r="C38" t="str">
+        <v>0.2193</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C39" t="str">
+        <v>0.1407</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Bolivia</v>
+      </c>
+      <c r="C40" t="str">
         <v>0.1942</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.1407</v>
-      </c>
-      <c r="D5" t="n">
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Brasil</v>
+      </c>
+      <c r="C41" t="str">
         <v>0.2277</v>
       </c>
-      <c r="E5" t="n">
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="C42" t="str">
         <v>0.2654</v>
       </c>
-      <c r="F5" t="n">
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="C43" t="str">
         <v>0.189</v>
       </c>
-      <c r="G5" t="n">
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Costa Rica</v>
+      </c>
+      <c r="C44" t="str">
+        <v>0.1645</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Ecuador</v>
+      </c>
+      <c r="C45" t="str">
         <v>0.1247</v>
       </c>
-      <c r="H5" t="n">
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="C46" t="str">
+        <v>0.2681</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Paraguay</v>
+      </c>
+      <c r="C47" t="str">
         <v>0.1942</v>
       </c>
-      <c r="I5" t="n">
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Perú</v>
+      </c>
+      <c r="C48" t="str">
         <v>0.2289</v>
       </c>
-      <c r="J5" t="n">
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2015</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Uruguay</v>
+      </c>
+      <c r="C49" t="str">
         <v>0.1431</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.2681</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1645</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.2193</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B6" t="n">
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B50" t="str">
+        <v>ALC</v>
+      </c>
+      <c r="C50" t="str">
+        <v>0.2018</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="C51" t="str">
+        <v>0.1236</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Bolivia</v>
+      </c>
+      <c r="C52" t="str">
         <v>0.1787</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.1236</v>
-      </c>
-      <c r="D6" t="n">
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Brasil</v>
+      </c>
+      <c r="C53" t="str">
         <v>0.2113</v>
       </c>
-      <c r="E6" t="n">
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Chile</v>
+      </c>
+      <c r="C54" t="str">
         <v>0.2204</v>
       </c>
-      <c r="F6" t="n">
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="C55" t="str">
         <v>0.1794</v>
       </c>
-      <c r="G6" t="n">
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Costa Rica</v>
+      </c>
+      <c r="C56" t="str">
+        <v>0.1817</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Ecuador</v>
+      </c>
+      <c r="C57" t="str">
         <v>0.14</v>
       </c>
-      <c r="H6" t="n">
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Mexico</v>
+      </c>
+      <c r="C58" t="str">
+        <v>0.2158</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Paraguay</v>
+      </c>
+      <c r="C59" t="str">
         <v>0.1787</v>
       </c>
-      <c r="I6" t="n">
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Perú</v>
+      </c>
+      <c r="C60" t="str">
         <v>0.269</v>
       </c>
-      <c r="J6" t="n">
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2023</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Uruguay</v>
+      </c>
+      <c r="C61" t="str">
         <v>0.1478</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.2158</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1817</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.2018</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C61"/>
+  </ignoredErrors>
 </worksheet>
 </file>